--- a/config_3.16/game_activity_config.xlsx
+++ b/config_3.16/game_activity_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="135">
   <si>
     <t>title|标题</t>
   </si>
@@ -515,31 +515,63 @@
     <t>new</t>
   </si>
   <si>
-    <t>感恩回馈</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>V3以下</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>V4以上</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_task","act_lgfl","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_task","act_lgfl_v4","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_gehk_v3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_gehk_v4v12</t>
+    <t>限时返利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时返利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3以下--捕鱼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V4以上--捕鱼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3以下--cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V4以上--cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v3_normal</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v4v12_normal</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v3_cjj</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v4v12_cjj</t>
+  </si>
+  <si>
+    <t>"act_ty_task","act_lgfl_normal","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_lgfl_v4_normal","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_lgfl_cjj","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_lgfl_v4_cjj","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +702,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,12 +783,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1035,13 +1061,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O35" sqref="O35"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1546,50 +1572,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+    <row r="12" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="15">
         <v>11</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="G12" s="21">
-        <v>1</v>
-      </c>
-      <c r="H12" s="28" t="s">
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="3">
         <v>1615248000</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="3">
         <v>1615823999</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="21">
-        <v>1</v>
-      </c>
-      <c r="O12" s="24" t="s">
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1821,47 +1847,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="21">
+    <row r="18" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="8">
         <v>17</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="21">
-        <v>1</v>
-      </c>
-      <c r="H18" s="21" t="s">
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="3">
         <v>1615248000</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="3">
         <v>1615823999</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="N18" s="21">
-        <v>1</v>
-      </c>
-      <c r="O18" s="24" t="s">
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="19" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2035,48 +2061,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="21">
+    <row r="23" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="8">
         <v>22</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="21">
-        <v>1</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="21">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="3">
         <v>1615248000</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="3">
         <v>1615823999</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="M23" s="24" t="s">
+      <c r="M23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="21">
-        <v>1</v>
-      </c>
-      <c r="O23" s="24" t="s">
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2168,97 +2194,97 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+    <row r="26" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="8">
         <v>25</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="21">
-        <v>1</v>
-      </c>
-      <c r="H26" s="26" t="s">
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="3">
         <v>1615248000</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="3">
         <v>1615823999</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="24" t="s">
+      <c r="L26" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M26" s="24" t="s">
+      <c r="M26" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="N26" s="21">
-        <v>1</v>
-      </c>
-      <c r="O26" s="24" t="s">
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+    <row r="27" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="8">
         <v>26</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="21">
-        <v>1</v>
-      </c>
-      <c r="H27" s="26" t="s">
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="3">
         <v>1615248000</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="3">
         <v>1615823999</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="N27" s="21">
-        <v>1</v>
-      </c>
-      <c r="O27" s="24" t="s">
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2300,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
@@ -2358,7 +2384,7 @@
         <v>119</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="21">
         <v>1</v>
@@ -2367,13 +2393,13 @@
         <v>1</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I30" s="21">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J30" s="21">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
       <c r="K30" s="24" t="s">
         <v>13</v>
@@ -2382,13 +2408,13 @@
         <v>55</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N30" s="21">
         <v>1</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2402,10 +2428,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F31" s="21">
         <v>1</v>
@@ -2414,13 +2440,13 @@
         <v>1</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I31" s="21">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J31" s="21">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
       <c r="K31" s="24" t="s">
         <v>13</v>
@@ -2429,13 +2455,107 @@
         <v>54</v>
       </c>
       <c r="M31" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="N31" s="21">
+        <v>1</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="23">
+        <v>29</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="N31" s="21">
-        <v>1</v>
-      </c>
-      <c r="O31" s="24" t="s">
-        <v>81</v>
+      <c r="F32" s="21">
+        <v>1</v>
+      </c>
+      <c r="G32" s="21">
+        <v>1</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="21">
+        <v>1615852800</v>
+      </c>
+      <c r="J32" s="21">
+        <v>1616428799</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="N32" s="21">
+        <v>1</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="23">
+        <v>30</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="21">
+        <v>1</v>
+      </c>
+      <c r="G33" s="21">
+        <v>1</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" s="21">
+        <v>1615852800</v>
+      </c>
+      <c r="J33" s="21">
+        <v>1616428799</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="N33" s="21">
+        <v>1</v>
+      </c>
+      <c r="O33" s="24" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2448,37 +2568,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2486,38 +2588,56 @@
 </settings>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_3.16/game_activity_config.xlsx
+++ b/config_3.16/game_activity_config.xlsx
@@ -1064,10 +1064,10 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2194,97 +2194,97 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="23">
         <v>25</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="3">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="25" t="s">
+      <c r="F26" s="21">
+        <v>4</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1</v>
+      </c>
+      <c r="H26" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="I26" s="3">
-        <v>1615248000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1615823999</v>
-      </c>
-      <c r="K26" s="19" t="s">
+      <c r="I26" s="21">
+        <v>1615852800</v>
+      </c>
+      <c r="J26" s="21">
+        <v>1616428799</v>
+      </c>
+      <c r="K26" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="19" t="s">
+      <c r="N26" s="21">
+        <v>1</v>
+      </c>
+      <c r="O26" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="23">
         <v>26</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="3">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="25" t="s">
+      <c r="F27" s="21">
+        <v>4</v>
+      </c>
+      <c r="G27" s="21">
+        <v>1</v>
+      </c>
+      <c r="H27" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="I27" s="3">
-        <v>1615248000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1615823999</v>
-      </c>
-      <c r="K27" s="19" t="s">
+      <c r="I27" s="21">
+        <v>1615852800</v>
+      </c>
+      <c r="J27" s="21">
+        <v>1616428799</v>
+      </c>
+      <c r="K27" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" s="19" t="s">
+      <c r="N27" s="21">
+        <v>1</v>
+      </c>
+      <c r="O27" s="24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2568,16 +2568,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2589,14 +2587,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2607,13 +2607,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2625,13 +2625,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.16/game_activity_config.xlsx
+++ b/config_3.16/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
   <si>
     <t>title|标题</t>
   </si>
@@ -469,18 +469,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>礼盒换好礼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>礼盒排行榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -572,6 +560,14 @@
   </si>
   <si>
     <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖春福利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换奖励</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1067,7 +1063,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1583,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>63</v>
@@ -1595,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I12" s="3">
         <v>1615248000</v>
@@ -1779,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I16" s="20">
         <v>1614643200</v>
@@ -2061,48 +2057,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+    <row r="23" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="21">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="23">
         <v>22</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="21">
         <v>2</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="3">
-        <v>1615248000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1615823999</v>
-      </c>
-      <c r="K23" s="19" t="s">
+      <c r="G23" s="21">
+        <v>1</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="21">
+        <v>1615852800</v>
+      </c>
+      <c r="J23" s="21">
+        <v>1616428799</v>
+      </c>
+      <c r="K23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="19" t="s">
+      <c r="N23" s="21">
+        <v>1</v>
+      </c>
+      <c r="O23" s="24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2205,7 +2201,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>89</v>
@@ -2252,7 +2248,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>90</v>
@@ -2326,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
@@ -2334,13 +2330,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C29" s="5">
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F29" s="4">
         <v>-20</v>
@@ -2355,19 +2351,19 @@
         <v>-1</v>
       </c>
       <c r="K29" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="4">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2381,10 +2377,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F30" s="21">
         <v>1</v>
@@ -2393,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I30" s="21">
         <v>1615852800</v>
@@ -2408,13 +2404,13 @@
         <v>55</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N30" s="21">
         <v>1</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2428,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F31" s="21">
         <v>1</v>
@@ -2440,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I31" s="21">
         <v>1615852800</v>
@@ -2455,13 +2451,13 @@
         <v>54</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N31" s="21">
         <v>1</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2475,10 +2471,10 @@
         <v>29</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F32" s="21">
         <v>1</v>
@@ -2487,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I32" s="21">
         <v>1615852800</v>
@@ -2502,13 +2498,13 @@
         <v>54</v>
       </c>
       <c r="M32" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="N32" s="21">
+        <v>1</v>
+      </c>
+      <c r="O32" s="24" t="s">
         <v>131</v>
-      </c>
-      <c r="N32" s="21">
-        <v>1</v>
-      </c>
-      <c r="O32" s="24" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2522,10 +2518,10 @@
         <v>30</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F33" s="21">
         <v>1</v>
@@ -2534,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I33" s="21">
         <v>1615852800</v>
@@ -2549,13 +2545,13 @@
         <v>54</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N33" s="21">
         <v>1</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2568,14 +2564,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2587,16 +2585,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2607,13 +2603,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2625,13 +2621,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.16/game_activity_config.xlsx
+++ b/config_3.16/game_activity_config.xlsx
@@ -469,10 +469,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>礼盒排行榜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_031_xxy_show</t>
   </si>
   <si>
@@ -568,6 +564,10 @@
   </si>
   <si>
     <t>兑换奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花排行榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +698,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +779,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1063,7 +1069,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1568,51 +1574,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:15" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="27">
         <v>11</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1615248000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1615823999</v>
-      </c>
-      <c r="K12" s="19" t="s">
+      <c r="F12" s="21">
+        <v>3</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="21">
+        <v>1615852800</v>
+      </c>
+      <c r="J12" s="21">
+        <v>1616428799</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>57</v>
+      <c r="N12" s="21">
+        <v>1</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1775,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I16" s="20">
         <v>1614643200</v>
@@ -1843,47 +1849,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row r="18" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="23">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="F18" s="21">
+        <v>3</v>
+      </c>
+      <c r="G18" s="21">
+        <v>1</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="3">
-        <v>1615248000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1615823999</v>
-      </c>
-      <c r="K18" s="19" t="s">
+      <c r="I18" s="21">
+        <v>1615852800</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1616428799</v>
+      </c>
+      <c r="K18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="19" t="s">
+      <c r="N18" s="21">
+        <v>1</v>
+      </c>
+      <c r="O18" s="24" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2068,7 +2074,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>85</v>
@@ -2201,7 +2207,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>89</v>
@@ -2248,7 +2254,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>90</v>
@@ -2322,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
@@ -2330,13 +2336,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="5">
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="4">
         <v>-20</v>
@@ -2351,19 +2357,19 @@
         <v>-1</v>
       </c>
       <c r="K29" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="N29" s="4">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2377,10 +2383,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30" s="21">
         <v>1</v>
@@ -2389,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I30" s="21">
         <v>1615852800</v>
@@ -2404,13 +2410,13 @@
         <v>55</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N30" s="21">
         <v>1</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2424,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="21">
         <v>1</v>
@@ -2436,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I31" s="21">
         <v>1615852800</v>
@@ -2451,13 +2457,13 @@
         <v>54</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N31" s="21">
         <v>1</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2471,10 +2477,10 @@
         <v>29</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32" s="21">
         <v>1</v>
@@ -2483,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I32" s="21">
         <v>1615852800</v>
@@ -2498,13 +2504,13 @@
         <v>54</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N32" s="21">
         <v>1</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2518,10 +2524,10 @@
         <v>30</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F33" s="21">
         <v>1</v>
@@ -2530,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" s="21">
         <v>1615852800</v>
@@ -2545,13 +2551,13 @@
         <v>54</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N33" s="21">
         <v>1</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2564,16 +2570,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2585,14 +2589,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2603,13 +2609,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2621,13 +2627,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
